--- a/biology/Botanique/Laser_(genre)/Laser_(genre).xlsx
+++ b/biology/Botanique/Laser_(genre)/Laser_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Laser est un genre de plantes à fleurs herbacées de la famille des Apiaceae. Ce genre partage, avec le genre Laserpitium, le nom vernaculaire de « laser ».
 </t>
@@ -511,9 +523,11 @@
           <t>Phytobiochimie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au moins certaines plantes du genre Laser contiennent des composés (guaianolides hexaoxygénés) qu'on pensait autrefois (jusqu'en 2013) uniquement présents dans le genre Thapsia et en particulier chez Thapsia garganica, une espèce végétale toxique, circum-méditerranéenne, de la famille des Apiacées[3]. L'un de ces composés est la thapsigargine, un puissant inhibiteur de l'enzyme SERCA (Endo/sarcoplasmique calcium ATPase)[4]. Son nom de genre (Thapsia) vient du grec ancien θαψι ́α (thapsia) car selon les grecs, la plante aurait été découvert sur l'île de Thapsos (actuelle Sicile)[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au moins certaines plantes du genre Laser contiennent des composés (guaianolides hexaoxygénés) qu'on pensait autrefois (jusqu'en 2013) uniquement présents dans le genre Thapsia et en particulier chez Thapsia garganica, une espèce végétale toxique, circum-méditerranéenne, de la famille des Apiacées. L'un de ces composés est la thapsigargine, un puissant inhibiteur de l'enzyme SERCA (Endo/sarcoplasmique calcium ATPase). Son nom de genre (Thapsia) vient du grec ancien θαψι ́α (thapsia) car selon les grecs, la plante aurait été découvert sur l'île de Thapsos (actuelle Sicile).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (29 décembre 2020)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (29 décembre 2020) :
 Laser affine (Ledeb.) Wojew. &amp; Spalik
 Laser archangelica (Wulfen) Spalik &amp; Wojew.
 Laser carduchorum (Hedge &amp; Lamond) Wojew. &amp; Spalik
@@ -580,9 +596,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre a pour aire de répartition l'Europe, présent à l'Ouest jusqu'en France, au Nord-Est jusqu'à l'Oural et au Sud-Est jusqu'en Iran[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre a pour aire de répartition l'Europe, présent à l'Ouest jusqu'en France, au Nord-Est jusqu'à l'Oural et au Sud-Est jusqu'en Iran.
 </t>
         </is>
       </c>
